--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.9_IE_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.9_IE_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E22EC8-39FD-45A4-BD37-345792657E0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607C1E57-0A9C-4991-A256-13402E7129AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
